--- a/Code/R/PerfSearch_Classification_Imbalanced.xlsx
+++ b/Code/R/PerfSearch_Classification_Imbalanced.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19815" windowHeight="7650"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19815" windowHeight="7650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TenfoldCV" sheetId="1" r:id="rId1"/>
+    <sheet name="Jackknife" sheetId="2" r:id="rId2"/>
+    <sheet name="IndependentTest" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
   <si>
     <t>No. of Features</t>
   </si>
@@ -865,13 +867,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="45">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="45">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -892,3755 +894,4109 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:7">
       <c r="A2">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>2050</v>
+        <v>2800</v>
       </c>
       <c r="C2">
         <v>0.3</v>
       </c>
       <c r="D2">
-        <v>0.80263157894736803</v>
+        <v>0.78618421052631604</v>
       </c>
       <c r="E2">
         <v>0.94009216589861799</v>
       </c>
       <c r="F2">
-        <v>0.45977011494252901</v>
+        <v>0.40229885057471299</v>
       </c>
       <c r="G2">
-        <v>0.47634886701692403</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.42439597189102202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>2050</v>
+        <v>2800</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.80263157894736803</v>
+        <v>0.78618421052631604</v>
       </c>
       <c r="E3">
         <v>0.94009216589861799</v>
       </c>
       <c r="F3">
-        <v>0.45977011494252901</v>
+        <v>0.40229885057471299</v>
       </c>
       <c r="G3">
-        <v>0.47634886701692403</v>
-      </c>
-      <c r="H3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>0.42439597189102202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>2050</v>
+        <v>2800</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4">
-        <v>0.80263157894736803</v>
+        <v>0.78618421052631604</v>
       </c>
       <c r="E4">
         <v>0.94009216589861799</v>
       </c>
       <c r="F4">
-        <v>0.45977011494252901</v>
+        <v>0.40229885057471299</v>
       </c>
       <c r="G4">
-        <v>0.47634886701692403</v>
-      </c>
-      <c r="H4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.42439597189102202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
-        <v>94</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>2050</v>
+        <v>2800</v>
       </c>
       <c r="C5">
         <v>10</v>
       </c>
       <c r="D5">
-        <v>0.80263157894736803</v>
+        <v>0.78618421052631604</v>
       </c>
       <c r="E5">
         <v>0.94009216589861799</v>
       </c>
       <c r="F5">
-        <v>0.45977011494252901</v>
+        <v>0.40229885057471299</v>
       </c>
       <c r="G5">
-        <v>0.47634886701692403</v>
-      </c>
-      <c r="H5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>0.42439597189102202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>2050</v>
+        <v>2800</v>
       </c>
       <c r="C6">
         <v>30</v>
       </c>
       <c r="D6">
-        <v>0.80263157894736803</v>
+        <v>0.78618421052631604</v>
       </c>
       <c r="E6">
         <v>0.94009216589861799</v>
       </c>
       <c r="F6">
-        <v>0.45977011494252901</v>
+        <v>0.40229885057471299</v>
       </c>
       <c r="G6">
-        <v>0.47634886701692403</v>
-      </c>
-      <c r="H6" t="s">
+        <v>0.42439597189102202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
-        <v>96</v>
-      </c>
       <c r="B7">
-        <v>2050</v>
+        <v>2800</v>
       </c>
       <c r="C7">
         <v>100</v>
       </c>
       <c r="D7">
-        <v>0.80263157894736803</v>
+        <v>0.78618421052631604</v>
       </c>
       <c r="E7">
         <v>0.94009216589861799</v>
       </c>
       <c r="F7">
-        <v>0.45977011494252901</v>
+        <v>0.40229885057471299</v>
       </c>
       <c r="G7">
-        <v>0.47634886701692403</v>
-      </c>
-      <c r="H7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.42439597189102202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>1750</v>
+        <v>2750</v>
       </c>
       <c r="C8">
         <v>0.3</v>
       </c>
       <c r="D8">
-        <v>0.79605263157894701</v>
+        <v>0.78618421052631604</v>
       </c>
       <c r="E8">
-        <v>0.93087557603686599</v>
+        <v>0.94009216589861799</v>
       </c>
       <c r="F8">
-        <v>0.45977011494252901</v>
+        <v>0.40229885057471299</v>
       </c>
       <c r="G8">
-        <v>0.45866068267382298</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.42439597189102202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
-        <v>128</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>1750</v>
+        <v>2750</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.79605263157894701</v>
+        <v>0.78618421052631604</v>
       </c>
       <c r="E9">
-        <v>0.93087557603686599</v>
+        <v>0.94009216589861799</v>
       </c>
       <c r="F9">
-        <v>0.45977011494252901</v>
+        <v>0.40229885057471299</v>
       </c>
       <c r="G9">
-        <v>0.45866068267382298</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.42439597189102202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
-        <v>129</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>1750</v>
+        <v>2750</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10">
-        <v>0.79605263157894701</v>
+        <v>0.78618421052631604</v>
       </c>
       <c r="E10">
-        <v>0.93087557603686599</v>
+        <v>0.94009216589861799</v>
       </c>
       <c r="F10">
-        <v>0.45977011494252901</v>
+        <v>0.40229885057471299</v>
       </c>
       <c r="G10">
-        <v>0.45866068267382298</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.42439597189102202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>1750</v>
+        <v>2750</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11">
-        <v>0.79605263157894701</v>
+        <v>0.78618421052631604</v>
       </c>
       <c r="E11">
-        <v>0.93087557603686599</v>
+        <v>0.94009216589861799</v>
       </c>
       <c r="F11">
-        <v>0.45977011494252901</v>
+        <v>0.40229885057471299</v>
       </c>
       <c r="G11">
-        <v>0.45866068267382298</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.42439597189102202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>1750</v>
+        <v>2750</v>
       </c>
       <c r="C12">
         <v>30</v>
       </c>
       <c r="D12">
-        <v>0.79605263157894701</v>
+        <v>0.78618421052631604</v>
       </c>
       <c r="E12">
-        <v>0.93087557603686599</v>
+        <v>0.94009216589861799</v>
       </c>
       <c r="F12">
-        <v>0.45977011494252901</v>
+        <v>0.40229885057471299</v>
       </c>
       <c r="G12">
-        <v>0.45866068267382298</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>0.42439597189102202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>1750</v>
+        <v>2750</v>
       </c>
       <c r="C13">
         <v>100</v>
       </c>
       <c r="D13">
-        <v>0.79605263157894701</v>
+        <v>0.78618421052631604</v>
       </c>
       <c r="E13">
-        <v>0.93087557603686599</v>
+        <v>0.94009216589861799</v>
       </c>
       <c r="F13">
-        <v>0.45977011494252901</v>
+        <v>0.40229885057471299</v>
       </c>
       <c r="G13">
-        <v>0.45866068267382298</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.42439597189102202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>1700</v>
+        <v>2700</v>
       </c>
       <c r="C14">
         <v>0.3</v>
       </c>
       <c r="D14">
-        <v>0.79276315789473695</v>
+        <v>0.78289473684210498</v>
       </c>
       <c r="E14">
-        <v>0.92626728110599099</v>
+        <v>0.94009216589861799</v>
       </c>
       <c r="F14">
-        <v>0.45977011494252901</v>
+        <v>0.390804597701149</v>
       </c>
       <c r="G14">
-        <v>0.45008964020148901</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.41368190251355702</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>1700</v>
+        <v>2700</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0.79276315789473695</v>
+        <v>0.78289473684210498</v>
       </c>
       <c r="E15">
-        <v>0.92626728110599099</v>
+        <v>0.94009216589861799</v>
       </c>
       <c r="F15">
-        <v>0.45977011494252901</v>
+        <v>0.390804597701149</v>
       </c>
       <c r="G15">
-        <v>0.45008964020148901</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>0.41368190251355702</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>1700</v>
+        <v>2700</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
       <c r="D16">
-        <v>0.79276315789473695</v>
+        <v>0.78289473684210498</v>
       </c>
       <c r="E16">
-        <v>0.92626728110599099</v>
+        <v>0.94009216589861799</v>
       </c>
       <c r="F16">
-        <v>0.45977011494252901</v>
+        <v>0.390804597701149</v>
       </c>
       <c r="G16">
-        <v>0.45008964020148901</v>
+        <v>0.41368190251355702</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>1700</v>
+        <v>2700</v>
       </c>
       <c r="C17">
         <v>10</v>
       </c>
       <c r="D17">
-        <v>0.79276315789473695</v>
+        <v>0.78289473684210498</v>
       </c>
       <c r="E17">
-        <v>0.92626728110599099</v>
+        <v>0.94009216589861799</v>
       </c>
       <c r="F17">
-        <v>0.45977011494252901</v>
+        <v>0.390804597701149</v>
       </c>
       <c r="G17">
-        <v>0.45008964020148901</v>
+        <v>0.41368190251355702</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>1700</v>
+        <v>2700</v>
       </c>
       <c r="C18">
         <v>30</v>
       </c>
       <c r="D18">
-        <v>0.79276315789473695</v>
+        <v>0.78289473684210498</v>
       </c>
       <c r="E18">
-        <v>0.92626728110599099</v>
+        <v>0.94009216589861799</v>
       </c>
       <c r="F18">
-        <v>0.45977011494252901</v>
+        <v>0.390804597701149</v>
       </c>
       <c r="G18">
-        <v>0.45008964020148901</v>
+        <v>0.41368190251355702</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>138</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>1700</v>
+        <v>2700</v>
       </c>
       <c r="C19">
         <v>100</v>
       </c>
       <c r="D19">
-        <v>0.79276315789473695</v>
+        <v>0.78289473684210498</v>
       </c>
       <c r="E19">
-        <v>0.92626728110599099</v>
+        <v>0.94009216589861799</v>
       </c>
       <c r="F19">
-        <v>0.45977011494252901</v>
+        <v>0.390804597701149</v>
       </c>
       <c r="G19">
-        <v>0.45008964020148901</v>
+        <v>0.41368190251355702</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>1850</v>
+        <v>2650</v>
       </c>
       <c r="C20">
         <v>0.3</v>
       </c>
       <c r="D20">
-        <v>0.79276315789473695</v>
+        <v>0.77631578947368396</v>
       </c>
       <c r="E20">
-        <v>0.93087557603686599</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="F20">
-        <v>0.44827586206896602</v>
+        <v>0.37931034482758602</v>
       </c>
       <c r="G20">
-        <v>0.44836873003279998</v>
+        <v>0.39355075182296601</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>1850</v>
+        <v>2650</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0.79276315789473695</v>
+        <v>0.77631578947368396</v>
       </c>
       <c r="E21">
-        <v>0.93087557603686599</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="F21">
-        <v>0.44827586206896602</v>
+        <v>0.37931034482758602</v>
       </c>
       <c r="G21">
-        <v>0.44836873003279998</v>
+        <v>0.39355075182296601</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>1850</v>
+        <v>2650</v>
       </c>
       <c r="C22">
         <v>3</v>
       </c>
       <c r="D22">
-        <v>0.79276315789473695</v>
+        <v>0.77631578947368396</v>
       </c>
       <c r="E22">
-        <v>0.93087557603686599</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="F22">
-        <v>0.44827586206896602</v>
+        <v>0.37931034482758602</v>
       </c>
       <c r="G22">
-        <v>0.44836873003279998</v>
+        <v>0.39355075182296601</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>1850</v>
+        <v>2650</v>
       </c>
       <c r="C23">
         <v>10</v>
       </c>
       <c r="D23">
-        <v>0.79276315789473695</v>
+        <v>0.77631578947368396</v>
       </c>
       <c r="E23">
-        <v>0.93087557603686599</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="F23">
-        <v>0.44827586206896602</v>
+        <v>0.37931034482758602</v>
       </c>
       <c r="G23">
-        <v>0.44836873003279998</v>
+        <v>0.39355075182296601</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>1850</v>
+        <v>2650</v>
       </c>
       <c r="C24">
         <v>30</v>
       </c>
       <c r="D24">
-        <v>0.79276315789473695</v>
+        <v>0.77631578947368396</v>
       </c>
       <c r="E24">
-        <v>0.93087557603686599</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="F24">
-        <v>0.44827586206896602</v>
+        <v>0.37931034482758602</v>
       </c>
       <c r="G24">
-        <v>0.44836873003279998</v>
+        <v>0.39355075182296601</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>1850</v>
+        <v>2650</v>
       </c>
       <c r="C25">
         <v>100</v>
       </c>
       <c r="D25">
-        <v>0.79276315789473695</v>
+        <v>0.77631578947368396</v>
       </c>
       <c r="E25">
-        <v>0.93087557603686599</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="F25">
-        <v>0.44827586206896602</v>
+        <v>0.37931034482758602</v>
       </c>
       <c r="G25">
-        <v>0.44836873003279998</v>
+        <v>0.39355075182296601</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="C26">
         <v>0.3</v>
       </c>
       <c r="D26">
-        <v>0.79276315789473695</v>
+        <v>0.77631578947368396</v>
       </c>
       <c r="E26">
-        <v>0.93548387096774199</v>
+        <v>0.94009216589861799</v>
       </c>
       <c r="F26">
-        <v>0.43678160919540199</v>
+        <v>0.36781609195402298</v>
       </c>
       <c r="G26">
-        <v>0.44682793568060702</v>
+        <v>0.391881435997748</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>122</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27">
-        <v>0.79276315789473695</v>
+        <v>0.77631578947368396</v>
       </c>
       <c r="E27">
-        <v>0.93548387096774199</v>
+        <v>0.94009216589861799</v>
       </c>
       <c r="F27">
-        <v>0.43678160919540199</v>
+        <v>0.36781609195402298</v>
       </c>
       <c r="G27">
-        <v>0.44682793568060702</v>
+        <v>0.391881435997748</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="C28">
         <v>3</v>
       </c>
       <c r="D28">
-        <v>0.79276315789473695</v>
+        <v>0.77631578947368396</v>
       </c>
       <c r="E28">
-        <v>0.93548387096774199</v>
+        <v>0.94009216589861799</v>
       </c>
       <c r="F28">
-        <v>0.43678160919540199</v>
+        <v>0.36781609195402298</v>
       </c>
       <c r="G28">
-        <v>0.44682793568060702</v>
+        <v>0.391881435997748</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="C29">
         <v>10</v>
       </c>
       <c r="D29">
-        <v>0.79276315789473695</v>
+        <v>0.77631578947368396</v>
       </c>
       <c r="E29">
-        <v>0.93548387096774199</v>
+        <v>0.94009216589861799</v>
       </c>
       <c r="F29">
-        <v>0.43678160919540199</v>
+        <v>0.36781609195402298</v>
       </c>
       <c r="G29">
-        <v>0.44682793568060702</v>
+        <v>0.391881435997748</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="C30">
         <v>30</v>
       </c>
       <c r="D30">
-        <v>0.79276315789473695</v>
+        <v>0.77631578947368396</v>
       </c>
       <c r="E30">
-        <v>0.93548387096774199</v>
+        <v>0.94009216589861799</v>
       </c>
       <c r="F30">
-        <v>0.43678160919540199</v>
+        <v>0.36781609195402298</v>
       </c>
       <c r="G30">
-        <v>0.44682793568060702</v>
+        <v>0.391881435997748</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>126</v>
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="C31">
         <v>100</v>
       </c>
       <c r="D31">
-        <v>0.79276315789473695</v>
+        <v>0.77631578947368396</v>
       </c>
       <c r="E31">
-        <v>0.93548387096774199</v>
+        <v>0.94009216589861799</v>
       </c>
       <c r="F31">
-        <v>0.43678160919540199</v>
+        <v>0.36781609195402298</v>
       </c>
       <c r="G31">
-        <v>0.44682793568060702</v>
+        <v>0.391881435997748</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="B32">
-        <v>2100</v>
+        <v>2550</v>
       </c>
       <c r="C32">
         <v>0.3</v>
       </c>
       <c r="D32">
-        <v>0.79276315789473695</v>
+        <v>0.78289473684210498</v>
       </c>
       <c r="E32">
         <v>0.94009216589861799</v>
       </c>
       <c r="F32">
-        <v>0.42528735632183901</v>
+        <v>0.390804597701149</v>
       </c>
       <c r="G32">
-        <v>0.445483718719142</v>
+        <v>0.41368190251355702</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="B33">
-        <v>2100</v>
+        <v>2550</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33">
-        <v>0.79276315789473695</v>
+        <v>0.78289473684210498</v>
       </c>
       <c r="E33">
         <v>0.94009216589861799</v>
       </c>
       <c r="F33">
-        <v>0.42528735632183901</v>
+        <v>0.390804597701149</v>
       </c>
       <c r="G33">
-        <v>0.445483718719142</v>
+        <v>0.41368190251355702</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="B34">
-        <v>2100</v>
+        <v>2550</v>
       </c>
       <c r="C34">
         <v>3</v>
       </c>
       <c r="D34">
-        <v>0.79276315789473695</v>
+        <v>0.78289473684210498</v>
       </c>
       <c r="E34">
         <v>0.94009216589861799</v>
       </c>
       <c r="F34">
-        <v>0.42528735632183901</v>
+        <v>0.390804597701149</v>
       </c>
       <c r="G34">
-        <v>0.445483718719142</v>
+        <v>0.41368190251355702</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="B35">
-        <v>2100</v>
+        <v>2550</v>
       </c>
       <c r="C35">
         <v>10</v>
       </c>
       <c r="D35">
-        <v>0.79276315789473695</v>
+        <v>0.78289473684210498</v>
       </c>
       <c r="E35">
         <v>0.94009216589861799</v>
       </c>
       <c r="F35">
-        <v>0.42528735632183901</v>
+        <v>0.390804597701149</v>
       </c>
       <c r="G35">
-        <v>0.445483718719142</v>
+        <v>0.41368190251355702</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="B36">
-        <v>2100</v>
+        <v>2550</v>
       </c>
       <c r="C36">
         <v>30</v>
       </c>
       <c r="D36">
-        <v>0.79276315789473695</v>
+        <v>0.78289473684210498</v>
       </c>
       <c r="E36">
         <v>0.94009216589861799</v>
       </c>
       <c r="F36">
-        <v>0.42528735632183901</v>
+        <v>0.390804597701149</v>
       </c>
       <c r="G36">
-        <v>0.445483718719142</v>
+        <v>0.41368190251355702</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>2100</v>
+        <v>2550</v>
       </c>
       <c r="C37">
         <v>100</v>
       </c>
       <c r="D37">
-        <v>0.79276315789473695</v>
+        <v>0.78289473684210498</v>
       </c>
       <c r="E37">
         <v>0.94009216589861799</v>
       </c>
       <c r="F37">
-        <v>0.42528735632183901</v>
+        <v>0.390804597701149</v>
       </c>
       <c r="G37">
-        <v>0.445483718719142</v>
+        <v>0.41368190251355702</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>1950</v>
+        <v>2500</v>
       </c>
       <c r="C38">
         <v>0.3</v>
       </c>
       <c r="D38">
-        <v>0.79276315789473695</v>
+        <v>0.77631578947368396</v>
       </c>
       <c r="E38">
-        <v>0.94009216589861799</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="F38">
-        <v>0.42528735632183901</v>
+        <v>0.37931034482758602</v>
       </c>
       <c r="G38">
-        <v>0.445483718719142</v>
+        <v>0.39355075182296601</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="B39">
-        <v>1950</v>
+        <v>2500</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39">
-        <v>0.79276315789473695</v>
+        <v>0.77631578947368396</v>
       </c>
       <c r="E39">
-        <v>0.94009216589861799</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="F39">
-        <v>0.42528735632183901</v>
+        <v>0.37931034482758602</v>
       </c>
       <c r="G39">
-        <v>0.445483718719142</v>
+        <v>0.39355075182296601</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="B40">
-        <v>1950</v>
+        <v>2500</v>
       </c>
       <c r="C40">
         <v>3</v>
       </c>
       <c r="D40">
-        <v>0.79276315789473695</v>
+        <v>0.77631578947368396</v>
       </c>
       <c r="E40">
-        <v>0.94009216589861799</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="F40">
-        <v>0.42528735632183901</v>
+        <v>0.37931034482758602</v>
       </c>
       <c r="G40">
-        <v>0.445483718719142</v>
+        <v>0.39355075182296601</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="B41">
-        <v>1950</v>
+        <v>2500</v>
       </c>
       <c r="C41">
         <v>10</v>
       </c>
       <c r="D41">
-        <v>0.79276315789473695</v>
+        <v>0.77631578947368396</v>
       </c>
       <c r="E41">
-        <v>0.94009216589861799</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="F41">
-        <v>0.42528735632183901</v>
+        <v>0.37931034482758602</v>
       </c>
       <c r="G41">
-        <v>0.445483718719142</v>
+        <v>0.39355075182296601</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="B42">
-        <v>1950</v>
+        <v>2500</v>
       </c>
       <c r="C42">
         <v>30</v>
       </c>
       <c r="D42">
-        <v>0.79276315789473695</v>
+        <v>0.77631578947368396</v>
       </c>
       <c r="E42">
-        <v>0.94009216589861799</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="F42">
-        <v>0.42528735632183901</v>
+        <v>0.37931034482758602</v>
       </c>
       <c r="G42">
-        <v>0.445483718719142</v>
+        <v>0.39355075182296601</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="B43">
-        <v>1950</v>
+        <v>2500</v>
       </c>
       <c r="C43">
         <v>100</v>
       </c>
       <c r="D43">
-        <v>0.79276315789473695</v>
+        <v>0.77631578947368396</v>
       </c>
       <c r="E43">
-        <v>0.94009216589861799</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="F43">
-        <v>0.42528735632183901</v>
+        <v>0.37931034482758602</v>
       </c>
       <c r="G43">
-        <v>0.445483718719142</v>
+        <v>0.39355075182296601</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="B44">
-        <v>2150</v>
+        <v>2450</v>
       </c>
       <c r="C44">
         <v>0.3</v>
       </c>
       <c r="D44">
-        <v>0.78947368421052599</v>
+        <v>0.77631578947368396</v>
       </c>
       <c r="E44">
-        <v>0.93087557603686599</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="F44">
-        <v>0.43678160919540199</v>
+        <v>0.37931034482758602</v>
       </c>
       <c r="G44">
-        <v>0.43798350589011398</v>
+        <v>0.39355075182296601</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="B45">
-        <v>2150</v>
+        <v>2450</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45">
-        <v>0.78947368421052599</v>
+        <v>0.77631578947368396</v>
       </c>
       <c r="E45">
-        <v>0.93087557603686599</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="F45">
-        <v>0.43678160919540199</v>
+        <v>0.37931034482758602</v>
       </c>
       <c r="G45">
-        <v>0.43798350589011398</v>
+        <v>0.39355075182296601</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="B46">
-        <v>2150</v>
+        <v>2450</v>
       </c>
       <c r="C46">
         <v>3</v>
       </c>
       <c r="D46">
-        <v>0.78947368421052599</v>
+        <v>0.77631578947368396</v>
       </c>
       <c r="E46">
-        <v>0.93087557603686599</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="F46">
-        <v>0.43678160919540199</v>
+        <v>0.37931034482758602</v>
       </c>
       <c r="G46">
-        <v>0.43798350589011398</v>
+        <v>0.39355075182296601</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="B47">
-        <v>2150</v>
+        <v>2450</v>
       </c>
       <c r="C47">
         <v>10</v>
       </c>
       <c r="D47">
-        <v>0.78947368421052599</v>
+        <v>0.77631578947368396</v>
       </c>
       <c r="E47">
-        <v>0.93087557603686599</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="F47">
-        <v>0.43678160919540199</v>
+        <v>0.37931034482758602</v>
       </c>
       <c r="G47">
-        <v>0.43798350589011398</v>
+        <v>0.39355075182296601</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="B48">
-        <v>2150</v>
+        <v>2450</v>
       </c>
       <c r="C48">
         <v>30</v>
       </c>
       <c r="D48">
-        <v>0.78947368421052599</v>
+        <v>0.77631578947368396</v>
       </c>
       <c r="E48">
-        <v>0.93087557603686599</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="F48">
-        <v>0.43678160919540199</v>
+        <v>0.37931034482758602</v>
       </c>
       <c r="G48">
-        <v>0.43798350589011398</v>
+        <v>0.39355075182296601</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="B49">
-        <v>2150</v>
+        <v>2450</v>
       </c>
       <c r="C49">
         <v>100</v>
       </c>
       <c r="D49">
-        <v>0.78947368421052599</v>
+        <v>0.77631578947368396</v>
       </c>
       <c r="E49">
-        <v>0.93087557603686599</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="F49">
-        <v>0.43678160919540199</v>
+        <v>0.37931034482758602</v>
       </c>
       <c r="G49">
-        <v>0.43798350589011398</v>
+        <v>0.39355075182296601</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50">
-        <v>151</v>
+        <v>49</v>
       </c>
       <c r="B50">
-        <v>1550</v>
+        <v>2400</v>
       </c>
       <c r="C50">
         <v>0.3</v>
       </c>
       <c r="D50">
-        <v>0.78947368421052599</v>
+        <v>0.78289473684210498</v>
       </c>
       <c r="E50">
-        <v>0.93087557603686599</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="F50">
-        <v>0.43678160919540199</v>
+        <v>0.40229885057471299</v>
       </c>
       <c r="G50">
-        <v>0.43798350589011398</v>
+        <v>0.41520138499063097</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51">
-        <v>152</v>
+        <v>50</v>
       </c>
       <c r="B51">
-        <v>1550</v>
+        <v>2400</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
       <c r="D51">
-        <v>0.78947368421052599</v>
+        <v>0.78289473684210498</v>
       </c>
       <c r="E51">
-        <v>0.93087557603686599</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="F51">
-        <v>0.43678160919540199</v>
+        <v>0.40229885057471299</v>
       </c>
       <c r="G51">
-        <v>0.43798350589011398</v>
+        <v>0.41520138499063097</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="B52">
-        <v>1550</v>
+        <v>2400</v>
       </c>
       <c r="C52">
         <v>3</v>
       </c>
       <c r="D52">
-        <v>0.78947368421052599</v>
+        <v>0.78289473684210498</v>
       </c>
       <c r="E52">
-        <v>0.93087557603686599</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="F52">
-        <v>0.43678160919540199</v>
+        <v>0.40229885057471299</v>
       </c>
       <c r="G52">
-        <v>0.43798350589011398</v>
+        <v>0.41520138499063097</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53">
-        <v>154</v>
+        <v>52</v>
       </c>
       <c r="B53">
-        <v>1550</v>
+        <v>2400</v>
       </c>
       <c r="C53">
         <v>10</v>
       </c>
       <c r="D53">
-        <v>0.78947368421052599</v>
+        <v>0.78289473684210498</v>
       </c>
       <c r="E53">
-        <v>0.93087557603686599</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="F53">
-        <v>0.43678160919540199</v>
+        <v>0.40229885057471299</v>
       </c>
       <c r="G53">
-        <v>0.43798350589011398</v>
+        <v>0.41520138499063097</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="B54">
-        <v>1550</v>
+        <v>2400</v>
       </c>
       <c r="C54">
         <v>30</v>
       </c>
       <c r="D54">
-        <v>0.78947368421052599</v>
+        <v>0.78289473684210498</v>
       </c>
       <c r="E54">
-        <v>0.93087557603686599</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="F54">
-        <v>0.43678160919540199</v>
+        <v>0.40229885057471299</v>
       </c>
       <c r="G54">
-        <v>0.43798350589011398</v>
+        <v>0.41520138499063097</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55">
-        <v>156</v>
+        <v>54</v>
       </c>
       <c r="B55">
-        <v>1550</v>
+        <v>2400</v>
       </c>
       <c r="C55">
         <v>100</v>
       </c>
       <c r="D55">
-        <v>0.78947368421052599</v>
+        <v>0.78289473684210498</v>
       </c>
       <c r="E55">
-        <v>0.93087557603686599</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="F55">
-        <v>0.43678160919540199</v>
+        <v>0.40229885057471299</v>
       </c>
       <c r="G55">
-        <v>0.43798350589011398</v>
+        <v>0.41520138499063097</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="B56">
-        <v>2000</v>
+        <v>2350</v>
       </c>
       <c r="C56">
         <v>0.3</v>
       </c>
       <c r="D56">
-        <v>0.78947368421052599</v>
+        <v>0.78289473684210498</v>
       </c>
       <c r="E56">
         <v>0.94009216589861799</v>
       </c>
       <c r="F56">
-        <v>0.41379310344827602</v>
+        <v>0.390804597701149</v>
       </c>
       <c r="G56">
-        <v>0.43499458258152801</v>
+        <v>0.41368190251355702</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="B57">
-        <v>2000</v>
+        <v>2350</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57">
-        <v>0.78947368421052599</v>
+        <v>0.78289473684210498</v>
       </c>
       <c r="E57">
         <v>0.94009216589861799</v>
       </c>
       <c r="F57">
-        <v>0.41379310344827602</v>
+        <v>0.390804597701149</v>
       </c>
       <c r="G57">
-        <v>0.43499458258152801</v>
+        <v>0.41368190251355702</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="B58">
-        <v>2000</v>
+        <v>2350</v>
       </c>
       <c r="C58">
         <v>3</v>
       </c>
       <c r="D58">
-        <v>0.78947368421052599</v>
+        <v>0.78289473684210498</v>
       </c>
       <c r="E58">
         <v>0.94009216589861799</v>
       </c>
       <c r="F58">
-        <v>0.41379310344827602</v>
+        <v>0.390804597701149</v>
       </c>
       <c r="G58">
-        <v>0.43499458258152801</v>
+        <v>0.41368190251355702</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="B59">
-        <v>2000</v>
+        <v>2350</v>
       </c>
       <c r="C59">
         <v>10</v>
       </c>
       <c r="D59">
-        <v>0.78947368421052599</v>
+        <v>0.78289473684210498</v>
       </c>
       <c r="E59">
         <v>0.94009216589861799</v>
       </c>
       <c r="F59">
-        <v>0.41379310344827602</v>
+        <v>0.390804597701149</v>
       </c>
       <c r="G59">
-        <v>0.43499458258152801</v>
+        <v>0.41368190251355702</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="B60">
-        <v>2000</v>
+        <v>2350</v>
       </c>
       <c r="C60">
         <v>30</v>
       </c>
       <c r="D60">
-        <v>0.78947368421052599</v>
+        <v>0.78289473684210498</v>
       </c>
       <c r="E60">
         <v>0.94009216589861799</v>
       </c>
       <c r="F60">
-        <v>0.41379310344827602</v>
+        <v>0.390804597701149</v>
       </c>
       <c r="G60">
-        <v>0.43499458258152801</v>
+        <v>0.41368190251355702</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="B61">
-        <v>2000</v>
+        <v>2350</v>
       </c>
       <c r="C61">
         <v>100</v>
       </c>
       <c r="D61">
-        <v>0.78947368421052599</v>
+        <v>0.78289473684210498</v>
       </c>
       <c r="E61">
         <v>0.94009216589861799</v>
       </c>
       <c r="F61">
-        <v>0.41379310344827602</v>
+        <v>0.390804597701149</v>
       </c>
       <c r="G61">
-        <v>0.43499458258152801</v>
+        <v>0.41368190251355702</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="B62">
-        <v>1900</v>
+        <v>2300</v>
       </c>
       <c r="C62">
         <v>0.3</v>
       </c>
       <c r="D62">
-        <v>0.78618421052631604</v>
+        <v>0.77302631578947401</v>
       </c>
       <c r="E62">
-        <v>0.93548387096774199</v>
+        <v>0.92626728110599099</v>
       </c>
       <c r="F62">
-        <v>0.41379310344827602</v>
+        <v>0.390804597701149</v>
       </c>
       <c r="G62">
-        <v>0.42585091928588298</v>
+        <v>0.386585320419365</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="B63">
-        <v>1900</v>
+        <v>2300</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
       <c r="D63">
-        <v>0.78618421052631604</v>
+        <v>0.77302631578947401</v>
       </c>
       <c r="E63">
-        <v>0.93548387096774199</v>
+        <v>0.92626728110599099</v>
       </c>
       <c r="F63">
-        <v>0.41379310344827602</v>
+        <v>0.390804597701149</v>
       </c>
       <c r="G63">
-        <v>0.42585091928588298</v>
+        <v>0.386585320419365</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="B64">
-        <v>1900</v>
+        <v>2300</v>
       </c>
       <c r="C64">
         <v>3</v>
       </c>
       <c r="D64">
-        <v>0.78618421052631604</v>
+        <v>0.77302631578947401</v>
       </c>
       <c r="E64">
-        <v>0.93548387096774199</v>
+        <v>0.92626728110599099</v>
       </c>
       <c r="F64">
-        <v>0.41379310344827602</v>
+        <v>0.390804597701149</v>
       </c>
       <c r="G64">
-        <v>0.42585091928588298</v>
+        <v>0.386585320419365</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="B65">
-        <v>1900</v>
+        <v>2300</v>
       </c>
       <c r="C65">
         <v>10</v>
       </c>
       <c r="D65">
-        <v>0.78618421052631604</v>
+        <v>0.77302631578947401</v>
       </c>
       <c r="E65">
-        <v>0.93548387096774199</v>
+        <v>0.92626728110599099</v>
       </c>
       <c r="F65">
-        <v>0.41379310344827602</v>
+        <v>0.390804597701149</v>
       </c>
       <c r="G65">
-        <v>0.42585091928588298</v>
+        <v>0.386585320419365</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="B66">
-        <v>1900</v>
+        <v>2300</v>
       </c>
       <c r="C66">
         <v>30</v>
       </c>
       <c r="D66">
-        <v>0.78618421052631604</v>
+        <v>0.77302631578947401</v>
       </c>
       <c r="E66">
-        <v>0.93548387096774199</v>
+        <v>0.92626728110599099</v>
       </c>
       <c r="F66">
-        <v>0.41379310344827602</v>
+        <v>0.390804597701149</v>
       </c>
       <c r="G66">
-        <v>0.42585091928588298</v>
+        <v>0.386585320419365</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="B67">
-        <v>1900</v>
+        <v>2300</v>
       </c>
       <c r="C67">
         <v>100</v>
       </c>
       <c r="D67">
-        <v>0.78618421052631604</v>
+        <v>0.77302631578947401</v>
       </c>
       <c r="E67">
-        <v>0.93548387096774199</v>
+        <v>0.92626728110599099</v>
       </c>
       <c r="F67">
-        <v>0.41379310344827602</v>
+        <v>0.390804597701149</v>
       </c>
       <c r="G67">
-        <v>0.42585091928588298</v>
+        <v>0.386585320419365</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="B68">
-        <v>2800</v>
+        <v>2250</v>
       </c>
       <c r="C68">
         <v>0.3</v>
       </c>
       <c r="D68">
-        <v>0.78618421052631604</v>
+        <v>0.78289473684210498</v>
       </c>
       <c r="E68">
-        <v>0.94009216589861799</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="F68">
         <v>0.40229885057471299</v>
       </c>
       <c r="G68">
-        <v>0.42439597189102202</v>
+        <v>0.41520138499063097</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="B69">
-        <v>2800</v>
+        <v>2250</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
       <c r="D69">
-        <v>0.78618421052631604</v>
+        <v>0.78289473684210498</v>
       </c>
       <c r="E69">
-        <v>0.94009216589861799</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="F69">
         <v>0.40229885057471299</v>
       </c>
       <c r="G69">
-        <v>0.42439597189102202</v>
+        <v>0.41520138499063097</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B70">
-        <v>2800</v>
+        <v>2250</v>
       </c>
       <c r="C70">
         <v>3</v>
       </c>
       <c r="D70">
-        <v>0.78618421052631604</v>
+        <v>0.78289473684210498</v>
       </c>
       <c r="E70">
-        <v>0.94009216589861799</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="F70">
         <v>0.40229885057471299</v>
       </c>
       <c r="G70">
-        <v>0.42439597189102202</v>
+        <v>0.41520138499063097</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="B71">
-        <v>2800</v>
+        <v>2250</v>
       </c>
       <c r="C71">
         <v>10</v>
       </c>
       <c r="D71">
-        <v>0.78618421052631604</v>
+        <v>0.78289473684210498</v>
       </c>
       <c r="E71">
-        <v>0.94009216589861799</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="F71">
         <v>0.40229885057471299</v>
       </c>
       <c r="G71">
-        <v>0.42439597189102202</v>
+        <v>0.41520138499063097</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="B72">
-        <v>2800</v>
+        <v>2250</v>
       </c>
       <c r="C72">
         <v>30</v>
       </c>
       <c r="D72">
-        <v>0.78618421052631604</v>
+        <v>0.78289473684210498</v>
       </c>
       <c r="E72">
-        <v>0.94009216589861799</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="F72">
         <v>0.40229885057471299</v>
       </c>
       <c r="G72">
-        <v>0.42439597189102202</v>
+        <v>0.41520138499063097</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="B73">
-        <v>2800</v>
+        <v>2250</v>
       </c>
       <c r="C73">
         <v>100</v>
       </c>
       <c r="D73">
-        <v>0.78618421052631604</v>
+        <v>0.78289473684210498</v>
       </c>
       <c r="E73">
-        <v>0.94009216589861799</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="F73">
         <v>0.40229885057471299</v>
       </c>
       <c r="G73">
-        <v>0.42439597189102202</v>
+        <v>0.41520138499063097</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="B74">
-        <v>2750</v>
+        <v>2200</v>
       </c>
       <c r="C74">
         <v>0.3</v>
       </c>
       <c r="D74">
-        <v>0.78618421052631604</v>
+        <v>0.77960526315789502</v>
       </c>
       <c r="E74">
-        <v>0.94009216589861799</v>
+        <v>0.93087557603686599</v>
       </c>
       <c r="F74">
         <v>0.40229885057471299</v>
       </c>
       <c r="G74">
-        <v>0.42439597189102202</v>
+        <v>0.40621811985262402</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="B75">
-        <v>2750</v>
+        <v>2200</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
       <c r="D75">
-        <v>0.78618421052631604</v>
+        <v>0.77960526315789502</v>
       </c>
       <c r="E75">
-        <v>0.94009216589861799</v>
+        <v>0.93087557603686599</v>
       </c>
       <c r="F75">
         <v>0.40229885057471299</v>
       </c>
       <c r="G75">
-        <v>0.42439597189102202</v>
+        <v>0.40621811985262402</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="B76">
-        <v>2750</v>
+        <v>2200</v>
       </c>
       <c r="C76">
         <v>3</v>
       </c>
       <c r="D76">
-        <v>0.78618421052631604</v>
+        <v>0.77960526315789502</v>
       </c>
       <c r="E76">
-        <v>0.94009216589861799</v>
+        <v>0.93087557603686599</v>
       </c>
       <c r="F76">
         <v>0.40229885057471299</v>
       </c>
       <c r="G76">
-        <v>0.42439597189102202</v>
+        <v>0.40621811985262402</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="B77">
-        <v>2750</v>
+        <v>2200</v>
       </c>
       <c r="C77">
         <v>10</v>
       </c>
       <c r="D77">
-        <v>0.78618421052631604</v>
+        <v>0.77960526315789502</v>
       </c>
       <c r="E77">
-        <v>0.94009216589861799</v>
+        <v>0.93087557603686599</v>
       </c>
       <c r="F77">
         <v>0.40229885057471299</v>
       </c>
       <c r="G77">
-        <v>0.42439597189102202</v>
+        <v>0.40621811985262402</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="B78">
-        <v>2750</v>
+        <v>2200</v>
       </c>
       <c r="C78">
         <v>30</v>
       </c>
       <c r="D78">
-        <v>0.78618421052631604</v>
+        <v>0.77960526315789502</v>
       </c>
       <c r="E78">
-        <v>0.94009216589861799</v>
+        <v>0.93087557603686599</v>
       </c>
       <c r="F78">
         <v>0.40229885057471299</v>
       </c>
       <c r="G78">
-        <v>0.42439597189102202</v>
+        <v>0.40621811985262402</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="B79">
-        <v>2750</v>
+        <v>2200</v>
       </c>
       <c r="C79">
         <v>100</v>
       </c>
       <c r="D79">
-        <v>0.78618421052631604</v>
+        <v>0.77960526315789502</v>
       </c>
       <c r="E79">
-        <v>0.94009216589861799</v>
+        <v>0.93087557603686599</v>
       </c>
       <c r="F79">
         <v>0.40229885057471299</v>
       </c>
       <c r="G79">
-        <v>0.42439597189102202</v>
+        <v>0.40621811985262402</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="B80">
-        <v>1600</v>
+        <v>2150</v>
       </c>
       <c r="C80">
         <v>0.3</v>
       </c>
       <c r="D80">
-        <v>0.78289473684210498</v>
+        <v>0.78947368421052599</v>
       </c>
       <c r="E80">
-        <v>0.91705069124423999</v>
+        <v>0.93087557603686599</v>
       </c>
       <c r="F80">
-        <v>0.44827586206896602</v>
+        <v>0.43678160919540199</v>
       </c>
       <c r="G80">
-        <v>0.42304330685796099</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.43798350589011398</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="B81">
-        <v>1600</v>
+        <v>2150</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
       <c r="D81">
-        <v>0.78289473684210498</v>
+        <v>0.78947368421052599</v>
       </c>
       <c r="E81">
-        <v>0.91705069124423999</v>
+        <v>0.93087557603686599</v>
       </c>
       <c r="F81">
-        <v>0.44827586206896602</v>
+        <v>0.43678160919540199</v>
       </c>
       <c r="G81">
-        <v>0.42304330685796099</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.43798350589011398</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82">
-        <v>147</v>
+        <v>81</v>
       </c>
       <c r="B82">
-        <v>1600</v>
+        <v>2150</v>
       </c>
       <c r="C82">
         <v>3</v>
       </c>
       <c r="D82">
-        <v>0.78289473684210498</v>
+        <v>0.78947368421052599</v>
       </c>
       <c r="E82">
-        <v>0.91705069124423999</v>
+        <v>0.93087557603686599</v>
       </c>
       <c r="F82">
-        <v>0.44827586206896602</v>
+        <v>0.43678160919540199</v>
       </c>
       <c r="G82">
-        <v>0.42304330685796099</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>0.43798350589011398</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="B83">
-        <v>1600</v>
+        <v>2150</v>
       </c>
       <c r="C83">
         <v>10</v>
       </c>
       <c r="D83">
-        <v>0.78289473684210498</v>
+        <v>0.78947368421052599</v>
       </c>
       <c r="E83">
-        <v>0.91705069124423999</v>
+        <v>0.93087557603686599</v>
       </c>
       <c r="F83">
-        <v>0.44827586206896602</v>
+        <v>0.43678160919540199</v>
       </c>
       <c r="G83">
-        <v>0.42304330685796099</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.43798350589011398</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="B84">
-        <v>1600</v>
+        <v>2150</v>
       </c>
       <c r="C84">
         <v>30</v>
       </c>
       <c r="D84">
-        <v>0.78289473684210498</v>
+        <v>0.78947368421052599</v>
       </c>
       <c r="E84">
-        <v>0.91705069124423999</v>
+        <v>0.93087557603686599</v>
       </c>
       <c r="F84">
-        <v>0.44827586206896602</v>
+        <v>0.43678160919540199</v>
       </c>
       <c r="G84">
-        <v>0.42304330685796099</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>0.43798350589011398</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="B85">
-        <v>1600</v>
+        <v>2150</v>
       </c>
       <c r="C85">
         <v>100</v>
       </c>
       <c r="D85">
-        <v>0.78289473684210498</v>
+        <v>0.78947368421052599</v>
       </c>
       <c r="E85">
-        <v>0.91705069124423999</v>
+        <v>0.93087557603686599</v>
       </c>
       <c r="F85">
-        <v>0.44827586206896602</v>
+        <v>0.43678160919540199</v>
       </c>
       <c r="G85">
-        <v>0.42304330685796099</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.43798350589011398</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="B86">
-        <v>2400</v>
+        <v>2100</v>
       </c>
       <c r="C86">
         <v>0.3</v>
       </c>
       <c r="D86">
-        <v>0.78289473684210498</v>
+        <v>0.79276315789473695</v>
       </c>
       <c r="E86">
-        <v>0.93548387096774199</v>
+        <v>0.94009216589861799</v>
       </c>
       <c r="F86">
-        <v>0.40229885057471299</v>
+        <v>0.42528735632183901</v>
       </c>
       <c r="G86">
-        <v>0.41520138499063097</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.445483718719142</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="B87">
-        <v>2400</v>
+        <v>2100</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
       <c r="D87">
-        <v>0.78289473684210498</v>
+        <v>0.79276315789473695</v>
       </c>
       <c r="E87">
-        <v>0.93548387096774199</v>
+        <v>0.94009216589861799</v>
       </c>
       <c r="F87">
-        <v>0.40229885057471299</v>
+        <v>0.42528735632183901</v>
       </c>
       <c r="G87">
-        <v>0.41520138499063097</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.445483718719142</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="B88">
-        <v>2400</v>
+        <v>2100</v>
       </c>
       <c r="C88">
         <v>3</v>
       </c>
       <c r="D88">
-        <v>0.78289473684210498</v>
+        <v>0.79276315789473695</v>
       </c>
       <c r="E88">
-        <v>0.93548387096774199</v>
+        <v>0.94009216589861799</v>
       </c>
       <c r="F88">
-        <v>0.40229885057471299</v>
+        <v>0.42528735632183901</v>
       </c>
       <c r="G88">
-        <v>0.41520138499063097</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.445483718719142</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="B89">
-        <v>2400</v>
+        <v>2100</v>
       </c>
       <c r="C89">
         <v>10</v>
       </c>
       <c r="D89">
-        <v>0.78289473684210498</v>
+        <v>0.79276315789473695</v>
       </c>
       <c r="E89">
-        <v>0.93548387096774199</v>
+        <v>0.94009216589861799</v>
       </c>
       <c r="F89">
-        <v>0.40229885057471299</v>
+        <v>0.42528735632183901</v>
       </c>
       <c r="G89">
-        <v>0.41520138499063097</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.445483718719142</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="B90">
-        <v>2400</v>
+        <v>2100</v>
       </c>
       <c r="C90">
         <v>30</v>
       </c>
       <c r="D90">
-        <v>0.78289473684210498</v>
+        <v>0.79276315789473695</v>
       </c>
       <c r="E90">
-        <v>0.93548387096774199</v>
+        <v>0.94009216589861799</v>
       </c>
       <c r="F90">
-        <v>0.40229885057471299</v>
+        <v>0.42528735632183901</v>
       </c>
       <c r="G90">
-        <v>0.41520138499063097</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.445483718719142</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="B91">
-        <v>2400</v>
+        <v>2100</v>
       </c>
       <c r="C91">
         <v>100</v>
       </c>
       <c r="D91">
-        <v>0.78289473684210498</v>
+        <v>0.79276315789473695</v>
       </c>
       <c r="E91">
-        <v>0.93548387096774199</v>
+        <v>0.94009216589861799</v>
       </c>
       <c r="F91">
-        <v>0.40229885057471299</v>
+        <v>0.42528735632183901</v>
       </c>
       <c r="G91">
-        <v>0.41520138499063097</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.445483718719142</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="B92">
-        <v>2250</v>
+        <v>2050</v>
       </c>
       <c r="C92">
         <v>0.3</v>
       </c>
       <c r="D92">
-        <v>0.78289473684210498</v>
+        <v>0.80263157894736803</v>
       </c>
       <c r="E92">
-        <v>0.93548387096774199</v>
+        <v>0.94009216589861799</v>
       </c>
       <c r="F92">
-        <v>0.40229885057471299</v>
+        <v>0.45977011494252901</v>
       </c>
       <c r="G92">
-        <v>0.41520138499063097</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.47634886701692403</v>
+      </c>
+      <c r="H92" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="B93">
-        <v>2250</v>
+        <v>2050</v>
       </c>
       <c r="C93">
         <v>1</v>
       </c>
       <c r="D93">
-        <v>0.78289473684210498</v>
+        <v>0.80263157894736803</v>
       </c>
       <c r="E93">
-        <v>0.93548387096774199</v>
+        <v>0.94009216589861799</v>
       </c>
       <c r="F93">
-        <v>0.40229885057471299</v>
+        <v>0.45977011494252901</v>
       </c>
       <c r="G93">
-        <v>0.41520138499063097</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.47634886701692403</v>
+      </c>
+      <c r="H93" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="B94">
-        <v>2250</v>
+        <v>2050</v>
       </c>
       <c r="C94">
         <v>3</v>
       </c>
       <c r="D94">
-        <v>0.78289473684210498</v>
+        <v>0.80263157894736803</v>
       </c>
       <c r="E94">
-        <v>0.93548387096774199</v>
+        <v>0.94009216589861799</v>
       </c>
       <c r="F94">
-        <v>0.40229885057471299</v>
+        <v>0.45977011494252901</v>
       </c>
       <c r="G94">
-        <v>0.41520138499063097</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.47634886701692403</v>
+      </c>
+      <c r="H94" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="B95">
-        <v>2250</v>
+        <v>2050</v>
       </c>
       <c r="C95">
         <v>10</v>
       </c>
       <c r="D95">
-        <v>0.78289473684210498</v>
+        <v>0.80263157894736803</v>
       </c>
       <c r="E95">
-        <v>0.93548387096774199</v>
+        <v>0.94009216589861799</v>
       </c>
       <c r="F95">
-        <v>0.40229885057471299</v>
+        <v>0.45977011494252901</v>
       </c>
       <c r="G95">
-        <v>0.41520138499063097</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.47634886701692403</v>
+      </c>
+      <c r="H95" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="B96">
-        <v>2250</v>
+        <v>2050</v>
       </c>
       <c r="C96">
         <v>30</v>
       </c>
       <c r="D96">
-        <v>0.78289473684210498</v>
+        <v>0.80263157894736803</v>
       </c>
       <c r="E96">
-        <v>0.93548387096774199</v>
+        <v>0.94009216589861799</v>
       </c>
       <c r="F96">
-        <v>0.40229885057471299</v>
+        <v>0.45977011494252901</v>
       </c>
       <c r="G96">
-        <v>0.41520138499063097</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>0.47634886701692403</v>
+      </c>
+      <c r="H96" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="B97">
-        <v>2250</v>
+        <v>2050</v>
       </c>
       <c r="C97">
         <v>100</v>
       </c>
       <c r="D97">
-        <v>0.78289473684210498</v>
+        <v>0.80263157894736803</v>
       </c>
       <c r="E97">
-        <v>0.93548387096774199</v>
+        <v>0.94009216589861799</v>
       </c>
       <c r="F97">
-        <v>0.40229885057471299</v>
+        <v>0.45977011494252901</v>
       </c>
       <c r="G97">
-        <v>0.41520138499063097</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.47634886701692403</v>
+      </c>
+      <c r="H97" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="B98">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="C98">
         <v>0.3</v>
       </c>
       <c r="D98">
-        <v>0.78289473684210498</v>
+        <v>0.78947368421052599</v>
       </c>
       <c r="E98">
         <v>0.94009216589861799</v>
       </c>
       <c r="F98">
-        <v>0.390804597701149</v>
+        <v>0.41379310344827602</v>
       </c>
       <c r="G98">
-        <v>0.41368190251355702</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.43499458258152801</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="B99">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
       <c r="D99">
-        <v>0.78289473684210498</v>
+        <v>0.78947368421052599</v>
       </c>
       <c r="E99">
         <v>0.94009216589861799</v>
       </c>
       <c r="F99">
-        <v>0.390804597701149</v>
+        <v>0.41379310344827602</v>
       </c>
       <c r="G99">
-        <v>0.41368190251355702</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>0.43499458258152801</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="B100">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="C100">
         <v>3</v>
       </c>
       <c r="D100">
-        <v>0.78289473684210498</v>
+        <v>0.78947368421052599</v>
       </c>
       <c r="E100">
         <v>0.94009216589861799</v>
       </c>
       <c r="F100">
-        <v>0.390804597701149</v>
+        <v>0.41379310344827602</v>
       </c>
       <c r="G100">
-        <v>0.41368190251355702</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>0.43499458258152801</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="B101">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="C101">
         <v>10</v>
       </c>
       <c r="D101">
-        <v>0.78289473684210498</v>
+        <v>0.78947368421052599</v>
       </c>
       <c r="E101">
         <v>0.94009216589861799</v>
       </c>
       <c r="F101">
-        <v>0.390804597701149</v>
+        <v>0.41379310344827602</v>
       </c>
       <c r="G101">
-        <v>0.41368190251355702</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.43499458258152801</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="B102">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="C102">
         <v>30</v>
       </c>
       <c r="D102">
-        <v>0.78289473684210498</v>
+        <v>0.78947368421052599</v>
       </c>
       <c r="E102">
         <v>0.94009216589861799</v>
       </c>
       <c r="F102">
-        <v>0.390804597701149</v>
+        <v>0.41379310344827602</v>
       </c>
       <c r="G102">
-        <v>0.41368190251355702</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.43499458258152801</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="B103">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="C103">
         <v>100</v>
       </c>
       <c r="D103">
-        <v>0.78289473684210498</v>
+        <v>0.78947368421052599</v>
       </c>
       <c r="E103">
         <v>0.94009216589861799</v>
       </c>
       <c r="F103">
-        <v>0.390804597701149</v>
+        <v>0.41379310344827602</v>
       </c>
       <c r="G103">
-        <v>0.41368190251355702</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.43499458258152801</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="B104">
-        <v>2550</v>
+        <v>1950</v>
       </c>
       <c r="C104">
         <v>0.3</v>
       </c>
       <c r="D104">
-        <v>0.78289473684210498</v>
+        <v>0.79276315789473695</v>
       </c>
       <c r="E104">
         <v>0.94009216589861799</v>
       </c>
       <c r="F104">
-        <v>0.390804597701149</v>
+        <v>0.42528735632183901</v>
       </c>
       <c r="G104">
-        <v>0.41368190251355702</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
+        <v>0.445483718719142</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="B105">
-        <v>2550</v>
+        <v>1950</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
       <c r="D105">
-        <v>0.78289473684210498</v>
+        <v>0.79276315789473695</v>
       </c>
       <c r="E105">
         <v>0.94009216589861799</v>
       </c>
       <c r="F105">
-        <v>0.390804597701149</v>
+        <v>0.42528735632183901</v>
       </c>
       <c r="G105">
-        <v>0.41368190251355702</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
+        <v>0.445483718719142</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="B106">
-        <v>2550</v>
+        <v>1950</v>
       </c>
       <c r="C106">
         <v>3</v>
       </c>
       <c r="D106">
-        <v>0.78289473684210498</v>
+        <v>0.79276315789473695</v>
       </c>
       <c r="E106">
         <v>0.94009216589861799</v>
       </c>
       <c r="F106">
-        <v>0.390804597701149</v>
+        <v>0.42528735632183901</v>
       </c>
       <c r="G106">
-        <v>0.41368190251355702</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
+        <v>0.445483718719142</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="B107">
-        <v>2550</v>
+        <v>1950</v>
       </c>
       <c r="C107">
         <v>10</v>
       </c>
       <c r="D107">
-        <v>0.78289473684210498</v>
+        <v>0.79276315789473695</v>
       </c>
       <c r="E107">
         <v>0.94009216589861799</v>
       </c>
       <c r="F107">
-        <v>0.390804597701149</v>
+        <v>0.42528735632183901</v>
       </c>
       <c r="G107">
-        <v>0.41368190251355702</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
+        <v>0.445483718719142</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="B108">
-        <v>2550</v>
+        <v>1950</v>
       </c>
       <c r="C108">
         <v>30</v>
       </c>
       <c r="D108">
-        <v>0.78289473684210498</v>
+        <v>0.79276315789473695</v>
       </c>
       <c r="E108">
         <v>0.94009216589861799</v>
       </c>
       <c r="F108">
-        <v>0.390804597701149</v>
+        <v>0.42528735632183901</v>
       </c>
       <c r="G108">
-        <v>0.41368190251355702</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
+        <v>0.445483718719142</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="B109">
-        <v>2550</v>
+        <v>1950</v>
       </c>
       <c r="C109">
         <v>100</v>
       </c>
       <c r="D109">
-        <v>0.78289473684210498</v>
+        <v>0.79276315789473695</v>
       </c>
       <c r="E109">
         <v>0.94009216589861799</v>
       </c>
       <c r="F109">
-        <v>0.390804597701149</v>
+        <v>0.42528735632183901</v>
       </c>
       <c r="G109">
-        <v>0.41368190251355702</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
+        <v>0.445483718719142</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="B110">
-        <v>2350</v>
+        <v>1900</v>
       </c>
       <c r="C110">
         <v>0.3</v>
       </c>
       <c r="D110">
-        <v>0.78289473684210498</v>
+        <v>0.78618421052631604</v>
       </c>
       <c r="E110">
-        <v>0.94009216589861799</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="F110">
-        <v>0.390804597701149</v>
+        <v>0.41379310344827602</v>
       </c>
       <c r="G110">
-        <v>0.41368190251355702</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
+        <v>0.42585091928588298</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="B111">
-        <v>2350</v>
+        <v>1900</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
       <c r="D111">
-        <v>0.78289473684210498</v>
+        <v>0.78618421052631604</v>
       </c>
       <c r="E111">
-        <v>0.94009216589861799</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="F111">
-        <v>0.390804597701149</v>
+        <v>0.41379310344827602</v>
       </c>
       <c r="G111">
-        <v>0.41368190251355702</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
+        <v>0.42585091928588298</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="B112">
-        <v>2350</v>
+        <v>1900</v>
       </c>
       <c r="C112">
         <v>3</v>
       </c>
       <c r="D112">
-        <v>0.78289473684210498</v>
+        <v>0.78618421052631604</v>
       </c>
       <c r="E112">
-        <v>0.94009216589861799</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="F112">
-        <v>0.390804597701149</v>
+        <v>0.41379310344827602</v>
       </c>
       <c r="G112">
-        <v>0.41368190251355702</v>
+        <v>0.42585091928588298</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="B113">
-        <v>2350</v>
+        <v>1900</v>
       </c>
       <c r="C113">
         <v>10</v>
       </c>
       <c r="D113">
-        <v>0.78289473684210498</v>
+        <v>0.78618421052631604</v>
       </c>
       <c r="E113">
-        <v>0.94009216589861799</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="F113">
-        <v>0.390804597701149</v>
+        <v>0.41379310344827602</v>
       </c>
       <c r="G113">
-        <v>0.41368190251355702</v>
+        <v>0.42585091928588298</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="B114">
-        <v>2350</v>
+        <v>1900</v>
       </c>
       <c r="C114">
         <v>30</v>
       </c>
       <c r="D114">
-        <v>0.78289473684210498</v>
+        <v>0.78618421052631604</v>
       </c>
       <c r="E114">
-        <v>0.94009216589861799</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="F114">
-        <v>0.390804597701149</v>
+        <v>0.41379310344827602</v>
       </c>
       <c r="G114">
-        <v>0.41368190251355702</v>
+        <v>0.42585091928588298</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="B115">
-        <v>2350</v>
+        <v>1900</v>
       </c>
       <c r="C115">
         <v>100</v>
       </c>
       <c r="D115">
-        <v>0.78289473684210498</v>
+        <v>0.78618421052631604</v>
       </c>
       <c r="E115">
-        <v>0.94009216589861799</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="F115">
-        <v>0.390804597701149</v>
+        <v>0.41379310344827602</v>
       </c>
       <c r="G115">
-        <v>0.41368190251355702</v>
+        <v>0.42585091928588298</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="B116">
-        <v>1650</v>
+        <v>1850</v>
       </c>
       <c r="C116">
         <v>0.3</v>
       </c>
       <c r="D116">
-        <v>0.77960526315789502</v>
+        <v>0.79276315789473695</v>
       </c>
       <c r="E116">
-        <v>0.92165898617511499</v>
+        <v>0.93087557603686599</v>
       </c>
       <c r="F116">
-        <v>0.42528735632183901</v>
+        <v>0.44827586206896602</v>
       </c>
       <c r="G116">
-        <v>0.41028432267600401</v>
+        <v>0.44836873003279998</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="B117">
-        <v>1650</v>
+        <v>1850</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
       <c r="D117">
-        <v>0.77960526315789502</v>
+        <v>0.79276315789473695</v>
       </c>
       <c r="E117">
-        <v>0.92165898617511499</v>
+        <v>0.93087557603686599</v>
       </c>
       <c r="F117">
-        <v>0.42528735632183901</v>
+        <v>0.44827586206896602</v>
       </c>
       <c r="G117">
-        <v>0.41028432267600401</v>
+        <v>0.44836873003279998</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="B118">
-        <v>1650</v>
+        <v>1850</v>
       </c>
       <c r="C118">
         <v>3</v>
       </c>
       <c r="D118">
-        <v>0.77960526315789502</v>
+        <v>0.79276315789473695</v>
       </c>
       <c r="E118">
-        <v>0.92165898617511499</v>
+        <v>0.93087557603686599</v>
       </c>
       <c r="F118">
-        <v>0.42528735632183901</v>
+        <v>0.44827586206896602</v>
       </c>
       <c r="G118">
-        <v>0.41028432267600401</v>
+        <v>0.44836873003279998</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="B119">
-        <v>1650</v>
+        <v>1850</v>
       </c>
       <c r="C119">
         <v>10</v>
       </c>
       <c r="D119">
-        <v>0.77960526315789502</v>
+        <v>0.79276315789473695</v>
       </c>
       <c r="E119">
-        <v>0.92165898617511499</v>
+        <v>0.93087557603686599</v>
       </c>
       <c r="F119">
-        <v>0.42528735632183901</v>
+        <v>0.44827586206896602</v>
       </c>
       <c r="G119">
-        <v>0.41028432267600401</v>
+        <v>0.44836873003279998</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="B120">
-        <v>1650</v>
+        <v>1850</v>
       </c>
       <c r="C120">
         <v>30</v>
       </c>
       <c r="D120">
-        <v>0.77960526315789502</v>
+        <v>0.79276315789473695</v>
       </c>
       <c r="E120">
-        <v>0.92165898617511499</v>
+        <v>0.93087557603686599</v>
       </c>
       <c r="F120">
-        <v>0.42528735632183901</v>
+        <v>0.44827586206896602</v>
       </c>
       <c r="G120">
-        <v>0.41028432267600401</v>
+        <v>0.44836873003279998</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B121">
-        <v>1650</v>
+        <v>1850</v>
       </c>
       <c r="C121">
         <v>100</v>
       </c>
       <c r="D121">
-        <v>0.77960526315789502</v>
+        <v>0.79276315789473695</v>
       </c>
       <c r="E121">
-        <v>0.92165898617511499</v>
+        <v>0.93087557603686599</v>
       </c>
       <c r="F121">
-        <v>0.42528735632183901</v>
+        <v>0.44827586206896602</v>
       </c>
       <c r="G121">
-        <v>0.41028432267600401</v>
+        <v>0.44836873003279998</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="B122">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="C122">
         <v>0.3</v>
       </c>
       <c r="D122">
-        <v>0.77960526315789502</v>
+        <v>0.79276315789473695</v>
       </c>
       <c r="E122">
-        <v>0.92626728110599099</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="F122">
-        <v>0.41379310344827602</v>
+        <v>0.43678160919540199</v>
       </c>
       <c r="G122">
-        <v>0.408172360140793</v>
+        <v>0.44682793568060702</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="B123">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="C123">
         <v>1</v>
       </c>
       <c r="D123">
-        <v>0.77960526315789502</v>
+        <v>0.79276315789473695</v>
       </c>
       <c r="E123">
-        <v>0.92626728110599099</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="F123">
-        <v>0.41379310344827602</v>
+        <v>0.43678160919540199</v>
       </c>
       <c r="G123">
-        <v>0.408172360140793</v>
+        <v>0.44682793568060702</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="B124">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="C124">
         <v>3</v>
       </c>
       <c r="D124">
-        <v>0.77960526315789502</v>
+        <v>0.79276315789473695</v>
       </c>
       <c r="E124">
-        <v>0.92626728110599099</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="F124">
-        <v>0.41379310344827602</v>
+        <v>0.43678160919540199</v>
       </c>
       <c r="G124">
-        <v>0.408172360140793</v>
+        <v>0.44682793568060702</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="B125">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="C125">
         <v>10</v>
       </c>
       <c r="D125">
-        <v>0.77960526315789502</v>
+        <v>0.79276315789473695</v>
       </c>
       <c r="E125">
-        <v>0.92626728110599099</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="F125">
-        <v>0.41379310344827602</v>
+        <v>0.43678160919540199</v>
       </c>
       <c r="G125">
-        <v>0.408172360140793</v>
+        <v>0.44682793568060702</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="B126">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="C126">
         <v>30</v>
       </c>
       <c r="D126">
-        <v>0.77960526315789502</v>
+        <v>0.79276315789473695</v>
       </c>
       <c r="E126">
-        <v>0.92626728110599099</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="F126">
-        <v>0.41379310344827602</v>
+        <v>0.43678160919540199</v>
       </c>
       <c r="G126">
-        <v>0.408172360140793</v>
+        <v>0.44682793568060702</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="B127">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="C127">
         <v>100</v>
       </c>
       <c r="D127">
-        <v>0.77960526315789502</v>
+        <v>0.79276315789473695</v>
       </c>
       <c r="E127">
-        <v>0.92626728110599099</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="F127">
-        <v>0.41379310344827602</v>
+        <v>0.43678160919540199</v>
       </c>
       <c r="G127">
-        <v>0.408172360140793</v>
+        <v>0.44682793568060702</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="B128">
-        <v>2200</v>
+        <v>1750</v>
       </c>
       <c r="C128">
         <v>0.3</v>
       </c>
       <c r="D128">
-        <v>0.77960526315789502</v>
+        <v>0.79605263157894701</v>
       </c>
       <c r="E128">
         <v>0.93087557603686599</v>
       </c>
       <c r="F128">
-        <v>0.40229885057471299</v>
+        <v>0.45977011494252901</v>
       </c>
       <c r="G128">
-        <v>0.40621811985262402</v>
+        <v>0.45866068267382298</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="B129">
-        <v>2200</v>
+        <v>1750</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
       <c r="D129">
-        <v>0.77960526315789502</v>
+        <v>0.79605263157894701</v>
       </c>
       <c r="E129">
         <v>0.93087557603686599</v>
       </c>
       <c r="F129">
-        <v>0.40229885057471299</v>
+        <v>0.45977011494252901</v>
       </c>
       <c r="G129">
-        <v>0.40621811985262402</v>
+        <v>0.45866068267382298</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="B130">
-        <v>2200</v>
+        <v>1750</v>
       </c>
       <c r="C130">
         <v>3</v>
       </c>
       <c r="D130">
-        <v>0.77960526315789502</v>
+        <v>0.79605263157894701</v>
       </c>
       <c r="E130">
         <v>0.93087557603686599</v>
       </c>
       <c r="F130">
-        <v>0.40229885057471299</v>
+        <v>0.45977011494252901</v>
       </c>
       <c r="G130">
-        <v>0.40621811985262402</v>
+        <v>0.45866068267382298</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="B131">
-        <v>2200</v>
+        <v>1750</v>
       </c>
       <c r="C131">
         <v>10</v>
       </c>
       <c r="D131">
-        <v>0.77960526315789502</v>
+        <v>0.79605263157894701</v>
       </c>
       <c r="E131">
         <v>0.93087557603686599</v>
       </c>
       <c r="F131">
-        <v>0.40229885057471299</v>
+        <v>0.45977011494252901</v>
       </c>
       <c r="G131">
-        <v>0.40621811985262402</v>
+        <v>0.45866068267382298</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="B132">
-        <v>2200</v>
+        <v>1750</v>
       </c>
       <c r="C132">
         <v>30</v>
       </c>
       <c r="D132">
-        <v>0.77960526315789502</v>
+        <v>0.79605263157894701</v>
       </c>
       <c r="E132">
         <v>0.93087557603686599</v>
       </c>
       <c r="F132">
-        <v>0.40229885057471299</v>
+        <v>0.45977011494252901</v>
       </c>
       <c r="G132">
-        <v>0.40621811985262402</v>
+        <v>0.45866068267382298</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="B133">
-        <v>2200</v>
+        <v>1750</v>
       </c>
       <c r="C133">
         <v>100</v>
       </c>
       <c r="D133">
-        <v>0.77960526315789502</v>
+        <v>0.79605263157894701</v>
       </c>
       <c r="E133">
         <v>0.93087557603686599</v>
       </c>
       <c r="F133">
-        <v>0.40229885057471299</v>
+        <v>0.45977011494252901</v>
       </c>
       <c r="G133">
-        <v>0.40621811985262402</v>
+        <v>0.45866068267382298</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="B134">
-        <v>2650</v>
+        <v>1700</v>
       </c>
       <c r="C134">
         <v>0.3</v>
       </c>
       <c r="D134">
-        <v>0.77631578947368396</v>
+        <v>0.79276315789473695</v>
       </c>
       <c r="E134">
-        <v>0.93548387096774199</v>
+        <v>0.92626728110599099</v>
       </c>
       <c r="F134">
-        <v>0.37931034482758602</v>
+        <v>0.45977011494252901</v>
       </c>
       <c r="G134">
-        <v>0.39355075182296601</v>
+        <v>0.45008964020148901</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="B135">
-        <v>2650</v>
+        <v>1700</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
       <c r="D135">
-        <v>0.77631578947368396</v>
+        <v>0.79276315789473695</v>
       </c>
       <c r="E135">
-        <v>0.93548387096774199</v>
+        <v>0.92626728110599099</v>
       </c>
       <c r="F135">
-        <v>0.37931034482758602</v>
+        <v>0.45977011494252901</v>
       </c>
       <c r="G135">
-        <v>0.39355075182296601</v>
+        <v>0.45008964020148901</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="B136">
-        <v>2650</v>
+        <v>1700</v>
       </c>
       <c r="C136">
         <v>3</v>
       </c>
       <c r="D136">
-        <v>0.77631578947368396</v>
+        <v>0.79276315789473695</v>
       </c>
       <c r="E136">
-        <v>0.93548387096774199</v>
+        <v>0.92626728110599099</v>
       </c>
       <c r="F136">
-        <v>0.37931034482758602</v>
+        <v>0.45977011494252901</v>
       </c>
       <c r="G136">
-        <v>0.39355075182296601</v>
+        <v>0.45008964020148901</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="B137">
-        <v>2650</v>
+        <v>1700</v>
       </c>
       <c r="C137">
         <v>10</v>
       </c>
       <c r="D137">
-        <v>0.77631578947368396</v>
+        <v>0.79276315789473695</v>
       </c>
       <c r="E137">
-        <v>0.93548387096774199</v>
+        <v>0.92626728110599099</v>
       </c>
       <c r="F137">
-        <v>0.37931034482758602</v>
+        <v>0.45977011494252901</v>
       </c>
       <c r="G137">
-        <v>0.39355075182296601</v>
+        <v>0.45008964020148901</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138">
-        <v>23</v>
+        <v>137</v>
       </c>
       <c r="B138">
-        <v>2650</v>
+        <v>1700</v>
       </c>
       <c r="C138">
         <v>30</v>
       </c>
       <c r="D138">
-        <v>0.77631578947368396</v>
+        <v>0.79276315789473695</v>
       </c>
       <c r="E138">
-        <v>0.93548387096774199</v>
+        <v>0.92626728110599099</v>
       </c>
       <c r="F138">
-        <v>0.37931034482758602</v>
+        <v>0.45977011494252901</v>
       </c>
       <c r="G138">
-        <v>0.39355075182296601</v>
+        <v>0.45008964020148901</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139">
-        <v>24</v>
+        <v>138</v>
       </c>
       <c r="B139">
-        <v>2650</v>
+        <v>1700</v>
       </c>
       <c r="C139">
         <v>100</v>
       </c>
       <c r="D139">
-        <v>0.77631578947368396</v>
+        <v>0.79276315789473695</v>
       </c>
       <c r="E139">
-        <v>0.93548387096774199</v>
+        <v>0.92626728110599099</v>
       </c>
       <c r="F139">
-        <v>0.37931034482758602</v>
+        <v>0.45977011494252901</v>
       </c>
       <c r="G139">
-        <v>0.39355075182296601</v>
+        <v>0.45008964020148901</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="B140">
-        <v>2500</v>
+        <v>1650</v>
       </c>
       <c r="C140">
         <v>0.3</v>
       </c>
       <c r="D140">
-        <v>0.77631578947368396</v>
+        <v>0.77960526315789502</v>
       </c>
       <c r="E140">
-        <v>0.93548387096774199</v>
+        <v>0.92165898617511499</v>
       </c>
       <c r="F140">
-        <v>0.37931034482758602</v>
+        <v>0.42528735632183901</v>
       </c>
       <c r="G140">
-        <v>0.39355075182296601</v>
+        <v>0.41028432267600401</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="B141">
-        <v>2500</v>
+        <v>1650</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
       <c r="D141">
-        <v>0.77631578947368396</v>
+        <v>0.77960526315789502</v>
       </c>
       <c r="E141">
-        <v>0.93548387096774199</v>
+        <v>0.92165898617511499</v>
       </c>
       <c r="F141">
-        <v>0.37931034482758602</v>
+        <v>0.42528735632183901</v>
       </c>
       <c r="G141">
-        <v>0.39355075182296601</v>
+        <v>0.41028432267600401</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="B142">
-        <v>2500</v>
+        <v>1650</v>
       </c>
       <c r="C142">
         <v>3</v>
       </c>
       <c r="D142">
-        <v>0.77631578947368396</v>
+        <v>0.77960526315789502</v>
       </c>
       <c r="E142">
-        <v>0.93548387096774199</v>
+        <v>0.92165898617511499</v>
       </c>
       <c r="F142">
-        <v>0.37931034482758602</v>
+        <v>0.42528735632183901</v>
       </c>
       <c r="G142">
-        <v>0.39355075182296601</v>
+        <v>0.41028432267600401</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143">
-        <v>40</v>
+        <v>142</v>
       </c>
       <c r="B143">
-        <v>2500</v>
+        <v>1650</v>
       </c>
       <c r="C143">
         <v>10</v>
       </c>
       <c r="D143">
-        <v>0.77631578947368396</v>
+        <v>0.77960526315789502</v>
       </c>
       <c r="E143">
-        <v>0.93548387096774199</v>
+        <v>0.92165898617511499</v>
       </c>
       <c r="F143">
-        <v>0.37931034482758602</v>
+        <v>0.42528735632183901</v>
       </c>
       <c r="G143">
-        <v>0.39355075182296601</v>
+        <v>0.41028432267600401</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="B144">
-        <v>2500</v>
+        <v>1650</v>
       </c>
       <c r="C144">
         <v>30</v>
       </c>
       <c r="D144">
-        <v>0.77631578947368396</v>
+        <v>0.77960526315789502</v>
       </c>
       <c r="E144">
-        <v>0.93548387096774199</v>
+        <v>0.92165898617511499</v>
       </c>
       <c r="F144">
-        <v>0.37931034482758602</v>
+        <v>0.42528735632183901</v>
       </c>
       <c r="G144">
-        <v>0.39355075182296601</v>
+        <v>0.41028432267600401</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="B145">
-        <v>2500</v>
+        <v>1650</v>
       </c>
       <c r="C145">
         <v>100</v>
       </c>
       <c r="D145">
-        <v>0.77631578947368396</v>
+        <v>0.77960526315789502</v>
       </c>
       <c r="E145">
-        <v>0.93548387096774199</v>
+        <v>0.92165898617511499</v>
       </c>
       <c r="F145">
-        <v>0.37931034482758602</v>
+        <v>0.42528735632183901</v>
       </c>
       <c r="G145">
-        <v>0.39355075182296601</v>
+        <v>0.41028432267600401</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="B146">
-        <v>2450</v>
+        <v>1600</v>
       </c>
       <c r="C146">
         <v>0.3</v>
       </c>
       <c r="D146">
-        <v>0.77631578947368396</v>
+        <v>0.78289473684210498</v>
       </c>
       <c r="E146">
-        <v>0.93548387096774199</v>
+        <v>0.91705069124423999</v>
       </c>
       <c r="F146">
-        <v>0.37931034482758602</v>
+        <v>0.44827586206896602</v>
       </c>
       <c r="G146">
-        <v>0.39355075182296601</v>
+        <v>0.42304330685796099</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="B147">
-        <v>2450</v>
+        <v>1600</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
       <c r="D147">
-        <v>0.77631578947368396</v>
+        <v>0.78289473684210498</v>
       </c>
       <c r="E147">
-        <v>0.93548387096774199</v>
+        <v>0.91705069124423999</v>
       </c>
       <c r="F147">
-        <v>0.37931034482758602</v>
+        <v>0.44827586206896602</v>
       </c>
       <c r="G147">
-        <v>0.39355075182296601</v>
+        <v>0.42304330685796099</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="B148">
-        <v>2450</v>
+        <v>1600</v>
       </c>
       <c r="C148">
         <v>3</v>
       </c>
       <c r="D148">
-        <v>0.77631578947368396</v>
+        <v>0.78289473684210498</v>
       </c>
       <c r="E148">
-        <v>0.93548387096774199</v>
+        <v>0.91705069124423999</v>
       </c>
       <c r="F148">
-        <v>0.37931034482758602</v>
+        <v>0.44827586206896602</v>
       </c>
       <c r="G148">
-        <v>0.39355075182296601</v>
+        <v>0.42304330685796099</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c r="B149">
-        <v>2450</v>
+        <v>1600</v>
       </c>
       <c r="C149">
         <v>10</v>
       </c>
       <c r="D149">
-        <v>0.77631578947368396</v>
+        <v>0.78289473684210498</v>
       </c>
       <c r="E149">
-        <v>0.93548387096774199</v>
+        <v>0.91705069124423999</v>
       </c>
       <c r="F149">
-        <v>0.37931034482758602</v>
+        <v>0.44827586206896602</v>
       </c>
       <c r="G149">
-        <v>0.39355075182296601</v>
+        <v>0.42304330685796099</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150">
-        <v>47</v>
+        <v>149</v>
       </c>
       <c r="B150">
-        <v>2450</v>
+        <v>1600</v>
       </c>
       <c r="C150">
         <v>30</v>
       </c>
       <c r="D150">
-        <v>0.77631578947368396</v>
+        <v>0.78289473684210498</v>
       </c>
       <c r="E150">
-        <v>0.93548387096774199</v>
+        <v>0.91705069124423999</v>
       </c>
       <c r="F150">
-        <v>0.37931034482758602</v>
+        <v>0.44827586206896602</v>
       </c>
       <c r="G150">
-        <v>0.39355075182296601</v>
+        <v>0.42304330685796099</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="B151">
-        <v>2450</v>
+        <v>1600</v>
       </c>
       <c r="C151">
         <v>100</v>
       </c>
       <c r="D151">
-        <v>0.77631578947368396</v>
+        <v>0.78289473684210498</v>
       </c>
       <c r="E151">
-        <v>0.93548387096774199</v>
+        <v>0.91705069124423999</v>
       </c>
       <c r="F151">
-        <v>0.37931034482758602</v>
+        <v>0.44827586206896602</v>
       </c>
       <c r="G151">
-        <v>0.39355075182296601</v>
+        <v>0.42304330685796099</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="B152">
-        <v>2600</v>
+        <v>1550</v>
       </c>
       <c r="C152">
         <v>0.3</v>
       </c>
       <c r="D152">
-        <v>0.77631578947368396</v>
+        <v>0.78947368421052599</v>
       </c>
       <c r="E152">
-        <v>0.94009216589861799</v>
+        <v>0.93087557603686599</v>
       </c>
       <c r="F152">
-        <v>0.36781609195402298</v>
+        <v>0.43678160919540199</v>
       </c>
       <c r="G152">
-        <v>0.391881435997748</v>
+        <v>0.43798350589011398</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="B153">
-        <v>2600</v>
+        <v>1550</v>
       </c>
       <c r="C153">
         <v>1</v>
       </c>
       <c r="D153">
-        <v>0.77631578947368396</v>
+        <v>0.78947368421052599</v>
       </c>
       <c r="E153">
-        <v>0.94009216589861799</v>
+        <v>0.93087557603686599</v>
       </c>
       <c r="F153">
-        <v>0.36781609195402298</v>
+        <v>0.43678160919540199</v>
       </c>
       <c r="G153">
-        <v>0.391881435997748</v>
+        <v>0.43798350589011398</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="B154">
-        <v>2600</v>
+        <v>1550</v>
       </c>
       <c r="C154">
         <v>3</v>
       </c>
       <c r="D154">
-        <v>0.77631578947368396</v>
+        <v>0.78947368421052599</v>
       </c>
       <c r="E154">
-        <v>0.94009216589861799</v>
+        <v>0.93087557603686599</v>
       </c>
       <c r="F154">
-        <v>0.36781609195402298</v>
+        <v>0.43678160919540199</v>
       </c>
       <c r="G154">
-        <v>0.391881435997748</v>
+        <v>0.43798350589011398</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155">
-        <v>28</v>
+        <v>154</v>
       </c>
       <c r="B155">
-        <v>2600</v>
+        <v>1550</v>
       </c>
       <c r="C155">
         <v>10</v>
       </c>
       <c r="D155">
-        <v>0.77631578947368396</v>
+        <v>0.78947368421052599</v>
       </c>
       <c r="E155">
-        <v>0.94009216589861799</v>
+        <v>0.93087557603686599</v>
       </c>
       <c r="F155">
-        <v>0.36781609195402298</v>
+        <v>0.43678160919540199</v>
       </c>
       <c r="G155">
-        <v>0.391881435997748</v>
+        <v>0.43798350589011398</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156">
-        <v>29</v>
+        <v>155</v>
       </c>
       <c r="B156">
-        <v>2600</v>
+        <v>1550</v>
       </c>
       <c r="C156">
         <v>30</v>
       </c>
       <c r="D156">
-        <v>0.77631578947368396</v>
+        <v>0.78947368421052599</v>
       </c>
       <c r="E156">
-        <v>0.94009216589861799</v>
+        <v>0.93087557603686599</v>
       </c>
       <c r="F156">
-        <v>0.36781609195402298</v>
+        <v>0.43678160919540199</v>
       </c>
       <c r="G156">
-        <v>0.391881435997748</v>
+        <v>0.43798350589011398</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="B157">
-        <v>2600</v>
+        <v>1550</v>
       </c>
       <c r="C157">
         <v>100</v>
       </c>
       <c r="D157">
-        <v>0.77631578947368396</v>
+        <v>0.78947368421052599</v>
       </c>
       <c r="E157">
-        <v>0.94009216589861799</v>
+        <v>0.93087557603686599</v>
       </c>
       <c r="F157">
-        <v>0.36781609195402298</v>
+        <v>0.43678160919540199</v>
       </c>
       <c r="G157">
-        <v>0.391881435997748</v>
+        <v>0.43798350589011398</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158">
-        <v>61</v>
+        <v>157</v>
       </c>
       <c r="B158">
-        <v>2300</v>
+        <v>1500</v>
       </c>
       <c r="C158">
         <v>0.3</v>
       </c>
       <c r="D158">
-        <v>0.77302631578947401</v>
+        <v>0.77960526315789502</v>
       </c>
       <c r="E158">
         <v>0.92626728110599099</v>
       </c>
       <c r="F158">
-        <v>0.390804597701149</v>
+        <v>0.41379310344827602</v>
       </c>
       <c r="G158">
-        <v>0.386585320419365</v>
+        <v>0.408172360140793</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159">
-        <v>62</v>
+        <v>158</v>
       </c>
       <c r="B159">
-        <v>2300</v>
+        <v>1500</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159">
-        <v>0.77302631578947401</v>
+        <v>0.77960526315789502</v>
       </c>
       <c r="E159">
         <v>0.92626728110599099</v>
       </c>
       <c r="F159">
-        <v>0.390804597701149</v>
+        <v>0.41379310344827602</v>
       </c>
       <c r="G159">
-        <v>0.386585320419365</v>
+        <v>0.408172360140793</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160">
-        <v>63</v>
+        <v>159</v>
       </c>
       <c r="B160">
-        <v>2300</v>
+        <v>1500</v>
       </c>
       <c r="C160">
         <v>3</v>
       </c>
       <c r="D160">
-        <v>0.77302631578947401</v>
+        <v>0.77960526315789502</v>
       </c>
       <c r="E160">
         <v>0.92626728110599099</v>
       </c>
       <c r="F160">
-        <v>0.390804597701149</v>
+        <v>0.41379310344827602</v>
       </c>
       <c r="G160">
-        <v>0.386585320419365</v>
+        <v>0.408172360140793</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161">
-        <v>64</v>
+        <v>160</v>
       </c>
       <c r="B161">
-        <v>2300</v>
+        <v>1500</v>
       </c>
       <c r="C161">
         <v>10</v>
       </c>
       <c r="D161">
-        <v>0.77302631578947401</v>
+        <v>0.77960526315789502</v>
       </c>
       <c r="E161">
         <v>0.92626728110599099</v>
       </c>
       <c r="F161">
-        <v>0.390804597701149</v>
+        <v>0.41379310344827602</v>
       </c>
       <c r="G161">
-        <v>0.386585320419365</v>
+        <v>0.408172360140793</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162">
-        <v>65</v>
+        <v>161</v>
       </c>
       <c r="B162">
-        <v>2300</v>
+        <v>1500</v>
       </c>
       <c r="C162">
         <v>30</v>
       </c>
       <c r="D162">
-        <v>0.77302631578947401</v>
+        <v>0.77960526315789502</v>
       </c>
       <c r="E162">
         <v>0.92626728110599099</v>
       </c>
       <c r="F162">
-        <v>0.390804597701149</v>
+        <v>0.41379310344827602</v>
       </c>
       <c r="G162">
-        <v>0.386585320419365</v>
+        <v>0.408172360140793</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163">
-        <v>66</v>
+        <v>162</v>
       </c>
       <c r="B163">
-        <v>2300</v>
+        <v>1500</v>
       </c>
       <c r="C163">
         <v>100</v>
       </c>
       <c r="D163">
-        <v>0.77302631578947401</v>
+        <v>0.77960526315789502</v>
       </c>
       <c r="E163">
         <v>0.92626728110599099</v>
       </c>
       <c r="F163">
-        <v>0.390804597701149</v>
+        <v>0.41379310344827602</v>
       </c>
       <c r="G163">
-        <v>0.386585320419365</v>
+        <v>0.408172360140793</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:G163">
-    <sortCondition descending="1" ref="G2"/>
+  <sortState ref="A2:H163">
+    <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="45">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2050</v>
+      </c>
+      <c r="C2">
+        <v>0.3</v>
+      </c>
+      <c r="D2">
+        <v>0.80592105263157898</v>
+      </c>
+      <c r="E2">
+        <v>0.93548387096774199</v>
+      </c>
+      <c r="F2">
+        <v>0.48275862068965503</v>
+      </c>
+      <c r="G2">
+        <v>0.48763828197461001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2050</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.80592105263157898</v>
+      </c>
+      <c r="E3">
+        <v>0.93548387096774199</v>
+      </c>
+      <c r="F3">
+        <v>0.48275862068965503</v>
+      </c>
+      <c r="G3">
+        <v>0.48763828197461001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2050</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>0.80592105263157898</v>
+      </c>
+      <c r="E4">
+        <v>0.93548387096774199</v>
+      </c>
+      <c r="F4">
+        <v>0.48275862068965503</v>
+      </c>
+      <c r="G4">
+        <v>0.48763828197461001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2050</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>0.80592105263157898</v>
+      </c>
+      <c r="E5">
+        <v>0.93548387096774199</v>
+      </c>
+      <c r="F5">
+        <v>0.48275862068965503</v>
+      </c>
+      <c r="G5">
+        <v>0.48763828197461001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2050</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>0.80592105263157898</v>
+      </c>
+      <c r="E6">
+        <v>0.93548387096774199</v>
+      </c>
+      <c r="F6">
+        <v>0.48275862068965503</v>
+      </c>
+      <c r="G6">
+        <v>0.48763828197461001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2050</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>0.80592105263157898</v>
+      </c>
+      <c r="E7">
+        <v>0.93548387096774199</v>
+      </c>
+      <c r="F7">
+        <v>0.48275862068965503</v>
+      </c>
+      <c r="G7">
+        <v>0.48763828197461001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="45">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2050</v>
+      </c>
+      <c r="C2">
+        <v>0.3</v>
+      </c>
+      <c r="D2">
+        <v>0.953125</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="G2">
+        <v>0.85234718659459796</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2050</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.953125</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="G3">
+        <v>0.85234718659459796</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2050</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>0.953125</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="G4">
+        <v>0.85234718659459796</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2050</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>0.953125</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="G5">
+        <v>0.85234718659459796</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2050</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>0.953125</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="G6">
+        <v>0.85234718659459796</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2050</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>0.953125</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="G7">
+        <v>0.85234718659459796</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>